--- a/clean/name/08006C.xlsx
+++ b/clean/name/08006C.xlsx
@@ -1465,6 +1465,11 @@
           <t>Plate(單項)</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Platelet_Count</t>
+        </is>
+      </c>
       <c r="D62">
         <v>2826</v>
       </c>
